--- a/AnosTotal.xlsx
+++ b/AnosTotal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44581098807\Desktop\excel2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFCD92A-F279-4EF4-8846-07622C5AB2A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EDA7F7-A998-45B7-B6AE-80AF8C3CD094}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,29 +17,6 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>6,219,039.46</t>
-  </si>
-  <si>
-    <t>5,888,181.20</t>
-  </si>
-  <si>
-    <t>5,750,724.36</t>
-  </si>
-  <si>
-    <t>5,452,942.87</t>
-  </si>
-  <si>
-    <t>5,620,564.34</t>
-  </si>
-  <si>
-    <t>6,082,472.99</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -100,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -110,7 +87,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +394,7 @@
   <dimension ref="A1:DD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,8 +430,12 @@
       <c r="I1" s="4">
         <v>2021</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="J1" s="4">
+        <v>2023</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2024</v>
+      </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -545,35 +527,39 @@
       <c r="DD1" s="1"/>
     </row>
     <row r="2" spans="1:108" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>5628.37</v>
-      </c>
-      <c r="H2" s="5">
-        <v>5719.38</v>
+      <c r="A2" s="3">
+        <v>6219039.46</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5888181.1960000005</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5750724.3599999975</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5452942.870000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5620564.3399999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6082472.9899999993</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5629.0810000000001</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5719.3769999999986</v>
       </c>
       <c r="I2" s="3">
         <v>912.524</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="5">
+        <v>3452796.87</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3515678.96</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
